--- a/medicine/Mort/Cimetière_boisé_de_Jönköping/Cimetière_boisé_de_Jönköping.xlsx
+++ b/medicine/Mort/Cimetière_boisé_de_Jönköping/Cimetière_boisé_de_Jönköping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_J%C3%B6nk%C3%B6ping</t>
+          <t>Cimetière_boisé_de_Jönköping</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière boisé de Jönköping (Skogskyrkogården i Jönköping en suédois) est un cimetière boisé situé dans le quartier de Ljungarum au sud de Jönköping en Suède.
-Le cimetière a été fondé en 1941 et son monument aux morts a été construit en 1970. Le cimetière a été classé monument culturel en 1996. La chapelle des bois (Skogskapellet) a été construite entre 1953 et 1958[1],[2].
-À partir du 27 mars 2000, il y eut une baisse soudaine du nombre d'enterrement, du fait d'une série de profanation et de vandalisme sur une soixantaine de tombes. Il a été suspecté que les profanations étaient liées à l'incendie criminel de l'ancienne église de Bäckaby et de la chapelle Kulla en avril-mai de la même année[3].
+Le cimetière a été fondé en 1941 et son monument aux morts a été construit en 1970. Le cimetière a été classé monument culturel en 1996. La chapelle des bois (Skogskapellet) a été construite entre 1953 et 1958,.
+À partir du 27 mars 2000, il y eut une baisse soudaine du nombre d'enterrement, du fait d'une série de profanation et de vandalisme sur une soixantaine de tombes. Il a été suspecté que les profanations étaient liées à l'incendie criminel de l'ancienne église de Bäckaby et de la chapelle Kulla en avril-mai de la même année.
 </t>
         </is>
       </c>
